--- a/data/stat probs/tristan thompson stat probs - condition.xlsx
+++ b/data/stat probs/tristan thompson stat probs - condition.xlsx
@@ -511,22 +511,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -769,16 +769,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -995,16 +995,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1447,22 +1447,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1705,22 +1705,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2159,22 +2159,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2417,22 +2417,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2837,22 +2837,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3101,10 +3101,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3263,10 +3263,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3425,10 +3425,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3581,16 +3581,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3775,16 +3775,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3969,16 +3969,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -4195,16 +4195,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -4421,22 +4421,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4679,22 +4679,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4937,16 +4937,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5163,16 +5163,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5389,16 +5389,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
